--- a/Datasets/suicidios2019CCAA.xlsx
+++ b/Datasets/suicidios2019CCAA.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/Library/CloudStorage/GoogleDrive-davidperez202223@gmail.com/Mi unidad/4th Quarter/INE/Datasets/Datos/David/Nuevos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AABF0D-6751-C141-98EE-BCFA525E885E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C18F6-697F-6B44-B39A-60C6B8604895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" activeTab="2" xr2:uid="{CB503229-6ACE-4C1D-A711-FB5F9A452304}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{CB503229-6ACE-4C1D-A711-FB5F9A452304}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
   <si>
     <t>Andalucía</t>
   </si>
@@ -432,6 +432,87 @@
   </si>
   <si>
     <t>Conjunto</t>
+  </si>
+  <si>
+    <t>gastomed</t>
+  </si>
+  <si>
+    <t>Elaboración propia dividiendo la variable "gastoprotec" entre "habitantes".</t>
+  </si>
+  <si>
+    <t>Elaboración propia dividiendo la variable "def" entre "habitantes".</t>
+  </si>
+  <si>
+    <t>16028 Estadística de Movimientos Turísticos en Frontera (FRONTUR)</t>
+  </si>
+  <si>
+    <t>suicpc</t>
+  </si>
+  <si>
+    <t>Gasto en protección ambiental  per cápita</t>
+  </si>
+  <si>
+    <t>Número de defunciones  per cápita</t>
+  </si>
+  <si>
+    <t>Comunidades Autónomas de España</t>
+  </si>
+  <si>
+    <t>Regresión lineal</t>
+  </si>
+  <si>
+    <t>Regresión logística</t>
+  </si>
+  <si>
+    <t>Series temporales multivariantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Series temporales univariantes </t>
+  </si>
+  <si>
+    <t>Análisis de componentes principales</t>
+  </si>
+  <si>
+    <t>Análisis clúster</t>
+  </si>
+  <si>
+    <t>Análisis factorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análisis descriptivo </t>
+  </si>
+  <si>
+    <t>IOE + Operación estadística</t>
+  </si>
+  <si>
+    <t>Enlace a datos</t>
+  </si>
+  <si>
+    <t>30417 Estadística de Defunciones según la Causa de Muerte</t>
+  </si>
+  <si>
+    <t>30219Estadística del Procedimiento Concursal</t>
+  </si>
+  <si>
+    <t>8701 (Ficha plan) Estadística sobre Actividades en I+D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30066 Estadísticas sobre las Actividades de Protección Medioambiental</t>
+  </si>
+  <si>
+    <t> 30245 Cifras Oficiales de Población de los Municipios Españoles: Revisión del Padrón Municipal</t>
+  </si>
+  <si>
+    <t> 30151 Estadística de Sociedades Mercantiles</t>
+  </si>
+  <si>
+    <t>8740 Estadística de Defunciones según la Causa de Muerte</t>
+  </si>
+  <si>
+    <t> 30468 Estadística de Violencia Doméstica y Violencia de Género</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante</t>
   </si>
   <si>
     <r>
@@ -458,86 +539,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Este dataset presenta la tasa de suicidios que ocurre en España con distintas variables demográficas y económicas que pueden llegar a influir o no,  por Comunidades Autónomas.</t>
+Este dataset presenta la tasa de suicidios que ocurre en España con distintas variables demográficas y económicas que pueden llegar a influir o no,  por Comunidades Autónomas. </t>
     </r>
-  </si>
-  <si>
-    <t>gastomed</t>
-  </si>
-  <si>
-    <t>Elaboración propia dividiendo la variable "gastoprotec" entre "habitantes".</t>
-  </si>
-  <si>
-    <t>Elaboración propia dividiendo la variable "def" entre "habitantes".</t>
-  </si>
-  <si>
-    <t>16028 Estadística de Movimientos Turísticos en Frontera (FRONTUR)</t>
-  </si>
-  <si>
-    <t>suicpc</t>
-  </si>
-  <si>
-    <t>Gasto en protección ambiental  per cápita</t>
-  </si>
-  <si>
-    <t>Número de defunciones  per cápita</t>
-  </si>
-  <si>
-    <t>Comunidades Autónomas de España</t>
-  </si>
-  <si>
-    <t>Regresión lineal</t>
-  </si>
-  <si>
-    <t>Regresión logística</t>
-  </si>
-  <si>
-    <t>Series temporales multivariantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series temporales univariantes </t>
-  </si>
-  <si>
-    <t>Análisis de componentes principales</t>
-  </si>
-  <si>
-    <t>Análisis clúster</t>
-  </si>
-  <si>
-    <t>Análisis factorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis descriptivo </t>
-  </si>
-  <si>
-    <t>IOE + Operación estadística</t>
-  </si>
-  <si>
-    <t>Enlace a datos</t>
-  </si>
-  <si>
-    <t>30417 Estadística de Defunciones según la Causa de Muerte</t>
-  </si>
-  <si>
-    <t>30219Estadística del Procedimiento Concursal</t>
-  </si>
-  <si>
-    <t>8701 (Ficha plan) Estadística sobre Actividades en I+D</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30066 Estadísticas sobre las Actividades de Protección Medioambiental</t>
-  </si>
-  <si>
-    <t> 30245 Cifras Oficiales de Población de los Municipios Españoles: Revisión del Padrón Municipal</t>
-  </si>
-  <si>
-    <t> 30151 Estadística de Sociedades Mercantiles</t>
-  </si>
-  <si>
-    <t>8740 Estadística de Defunciones según la Causa de Muerte</t>
-  </si>
-  <si>
-    <t> 30468 Estadística de Violencia Doméstica y Violencia de Género</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,13 +622,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -672,8 +668,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0CECE"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -986,13 +982,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1034,6 +1023,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1060,9 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1384,96 +1380,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3941420-9C73-4102-A35A-3A3333EA9CF3}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1485,6 +1482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82A616A-0311-438F-A26D-AFAFEFB407D3}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1512,7 +1510,7 @@
         <v>79</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>17</v>
@@ -3258,9 +3256,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEA7BC1-E1DB-4C8E-9EC9-846E21F24F8F}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -3278,29 +3277,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -3322,15 +3321,15 @@
       <c r="F2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
@@ -3338,8 +3337,8 @@
         <v>28</v>
       </c>
       <c r="F3" s="30"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -3358,17 +3357,17 @@
         <v>45</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="38"/>
+        <v>149</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2">
         <v>2021</v>
@@ -3382,10 +3381,10 @@
       <c r="F5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="39"/>
+      <c r="G5" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -3404,10 +3403,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="49"/>
+        <v>150</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -3426,14 +3425,14 @@
         <v>29</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="38"/>
+        <v>151</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>77</v>
@@ -3450,8 +3449,8 @@
       <c r="F8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -3470,17 +3469,17 @@
         <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="38"/>
+        <v>152</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2">
         <v>2019</v>
@@ -3494,10 +3493,10 @@
       <c r="F10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="39"/>
+      <c r="G10" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -3516,10 +3515,10 @@
         <v>45</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="49"/>
+        <v>153</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -3540,8 +3539,8 @@
       <c r="F12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -3562,8 +3561,8 @@
       <c r="F13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
@@ -3581,11 +3580,11 @@
       <c r="E14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -3606,8 +3605,8 @@
       <c r="F15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
@@ -3628,8 +3627,8 @@
       <c r="F16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="49"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -3650,8 +3649,8 @@
       <c r="F17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
@@ -3670,10 +3669,10 @@
         <v>45</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
@@ -3691,11 +3690,11 @@
       <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
@@ -3716,8 +3715,8 @@
       <c r="F20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="39"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
@@ -3735,11 +3734,11 @@
       <c r="E21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="49"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
@@ -3758,10 +3757,10 @@
         <v>45</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="38"/>
+        <v>154</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -3780,10 +3779,10 @@
         <v>45</v>
       </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -3802,14 +3801,14 @@
         <v>45</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="38"/>
+        <v>155</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>81</v>
@@ -3823,10 +3822,10 @@
       <c r="E25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
@@ -3845,10 +3844,10 @@
         <v>45</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="49"/>
+        <v>134</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
@@ -3867,10 +3866,10 @@
         <v>45</v>
       </c>
       <c r="F27" s="17"/>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="38"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -3889,10 +3888,10 @@
         <v>45</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="40"/>
+        <v>156</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3964,15 +3963,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB88284-90E4-4F7B-8CBB-91BF140508C2}">
-  <dimension ref="A1:B41"/>
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -4238,66 +4238,74 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B36" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B37" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B38" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
+    <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B39" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="32" t="s">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B40" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B41" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="33">
+      <c r="B42" s="49">
         <v>0</v>
       </c>
     </row>

--- a/Datasets/suicidios2019CCAA.xlsx
+++ b/Datasets/suicidios2019CCAA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5C18F6-697F-6B44-B39A-60C6B8604895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F009320-7955-6A43-81DB-195EFD575AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{CB503229-6ACE-4C1D-A711-FB5F9A452304}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="160">
   <si>
     <t>Andalucía</t>
   </si>
@@ -542,6 +542,132 @@
 Este dataset presenta la tasa de suicidios que ocurre en España con distintas variables demográficas y económicas que pueden llegar a influir o no,  por Comunidades Autónomas. </t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Técnica de estudio :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Se pretende hacer una regresión ineal que explique el número de suicpc en función del resto de variables que sean pertinentes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Análisis exploratorio. Ver que las variables que no son per cápita tienen una correlación muy altas y por tanto, no considerarlas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Plantear las hipótesis de una regresión.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Analizar el modelo planteado y su ajuste de bondad.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4.  Comprobar hipótesis de regresión.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Cuerpo)"/>
+      </rPr>
+      <t>.........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.  Conclusión.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -550,7 +676,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +747,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Cuerpo)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Cuerpo)"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1381,10 +1516,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3941420-9C73-4102-A35A-3A3333EA9CF3}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1472,9 +1607,93 @@
       <c r="F12" s="58"/>
       <c r="G12" s="59"/>
     </row>
+    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:G12"/>
+    <mergeCell ref="B14:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
